--- a/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
+++ b/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>EAE - calcul de l'ancienneté dans le grade</t>
   </si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>A faire sur fermeture de la campagne + reprendre l'existant</t>
+  </si>
+  <si>
+    <t>En attente DRH</t>
+  </si>
+  <si>
+    <t>ON FAIT QUOI PAR RAPPORT A CA ?</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1144,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1222,6 +1228,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1231,13 +1244,9 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1585,8 +1594,8 @@
   </sheetPr>
   <dimension ref="B3:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,19 +1610,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
@@ -1660,8 +1669,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="38"/>
+      <c r="I7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="E8" s="21"/>
@@ -1692,10 +1703,12 @@
         <v>0.5</v>
       </c>
       <c r="H10" s="28"/>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="28"/>
+      <c r="J10" s="28" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
@@ -1711,10 +1724,12 @@
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="28"/>
+      <c r="J11" s="28" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
@@ -1739,7 +1754,9 @@
       <c r="I12" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="28"/>
+      <c r="J12" s="28" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -1792,7 +1809,9 @@
       <c r="I15" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="28"/>
+      <c r="J15" s="28" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
@@ -1817,7 +1836,9 @@
       <c r="I16" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="28"/>
+      <c r="J16" s="28" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="17" spans="2:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
@@ -1840,9 +1861,7 @@
       <c r="I17" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -1878,7 +1897,9 @@
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="J19" s="28" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="20" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
@@ -2017,7 +2038,7 @@
       <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="37">
         <v>2</v>
       </c>
       <c r="H26" s="28"/>
@@ -2034,7 +2055,7 @@
       <c r="D27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="35"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
@@ -2054,7 +2075,9 @@
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="J28" s="39" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
@@ -2149,6 +2172,7 @@
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
@@ -2173,6 +2197,7 @@
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
     </row>
     <row r="40" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -2189,6 +2214,7 @@
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
@@ -2217,6 +2243,7 @@
       <c r="I43" s="28" t="s">
         <v>98</v>
       </c>
+      <c r="J43" s="28"/>
     </row>
     <row r="44" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
@@ -2233,6 +2260,7 @@
         <v>3</v>
       </c>
       <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
     </row>
     <row r="45" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -2253,12 +2281,13 @@
       <c r="I45" s="28" t="s">
         <v>99</v>
       </c>
+      <c r="J45" s="28"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="49" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>4</v>
       </c>
@@ -2272,11 +2301,12 @@
       <c r="H49" s="28">
         <v>3</v>
       </c>
-      <c r="I49" s="28" t="s">
+      <c r="I49" s="31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J49" s="28"/>
+    </row>
+    <row r="50" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -2291,8 +2321,9 @@
       </c>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
-    </row>
-    <row r="51" spans="2:9" ht="35.25" x14ac:dyDescent="0.3">
+      <c r="J50" s="28"/>
+    </row>
+    <row r="51" spans="2:10" ht="35.25" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>40</v>
       </c>
@@ -2307,8 +2338,9 @@
       <c r="I51" s="28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="28"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G53" s="32">
         <f>SUM(G7:G51)</f>
         <v>45.5</v>
@@ -2326,7 +2358,7 @@
     <mergeCell ref="G26:G27"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>

--- a/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
+++ b/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
   <si>
     <t>EAE - calcul de l'ancienneté dans le grade</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>ON FAIT QUOI PAR RAPPORT A CA ?</t>
+  </si>
+  <si>
+    <t>Vu avec Michel et la DRHFPNC, notre calcul est ok et ne doit pas tenir compte ni de l'ACC ni de la BM</t>
   </si>
 </sst>
 </file>
@@ -727,7 +730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,6 +931,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,7 +1153,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1235,6 +1244,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1244,9 +1256,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1592,10 +1602,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:J53"/>
+  <dimension ref="B3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,22 +1619,22 @@
     <col min="10" max="10" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G4" s="37" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>67</v>
       </c>
@@ -1653,7 +1663,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1673,19 +1683,20 @@
         <v>101</v>
       </c>
       <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="K7" s="40"/>
+    </row>
+    <row r="8" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="12"/>
       <c r="D9" s="6"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
@@ -1710,7 +1721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>91</v>
       </c>
@@ -1731,7 +1742,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1769,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
@@ -1778,15 +1789,16 @@
         <v>93</v>
       </c>
       <c r="J13" s="28"/>
-    </row>
-    <row r="14" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="12"/>
       <c r="D14" s="6"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="2:10" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>13</v>
       </c>
@@ -1813,7 +1825,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>14</v>
       </c>
@@ -1840,7 +1852,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="120" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
@@ -1861,9 +1873,11 @@
       <c r="I17" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="28"/>
-    </row>
-    <row r="18" spans="2:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1880,8 +1894,9 @@
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="2:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="2:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1901,7 +1916,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
@@ -1925,7 +1940,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="135" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>8</v>
       </c>
@@ -1944,8 +1959,9 @@
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="K21" s="40"/>
+    </row>
+    <row r="22" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>41</v>
       </c>
@@ -1967,7 +1983,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1985,7 +2001,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2005,7 +2021,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
@@ -2028,7 +2044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
@@ -2038,14 +2054,14 @@
       <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="38">
         <v>2</v>
       </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
     </row>
-    <row r="27" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
@@ -2055,12 +2071,12 @@
       <c r="D27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="38"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
     </row>
-    <row r="28" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>75</v>
       </c>
@@ -2075,15 +2091,15 @@
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="39" t="s">
+      <c r="J28" s="36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="31" spans="2:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>52</v>
       </c>
@@ -2104,7 +2120,7 @@
       </c>
       <c r="J31" s="28"/>
     </row>
-    <row r="32" spans="2:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>

--- a/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
+++ b/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
   <si>
     <t>EAE - calcul de l'ancienneté dans le grade</t>
   </si>
@@ -548,6 +548,27 @@
   </si>
   <si>
     <t>Vu avec Michel et la DRHFPNC, notre calcul est ok et ne doit pas tenir compte ni de l'ACC ni de la BM</t>
+  </si>
+  <si>
+    <t>A voir à l'utilisation pour nous donner plus de precisions</t>
+  </si>
+  <si>
+    <t>Envoyer message erreur à SP.</t>
+  </si>
+  <si>
+    <t>On fait quelque chose dans SIRH ou on laisse la possibilité de pouvoir le faire</t>
+  </si>
+  <si>
+    <t>Si on fait l'edition en masse.</t>
+  </si>
+  <si>
+    <t>En attente reponse Titine/Fred sur impact paye.</t>
+  </si>
+  <si>
+    <t>Actuellement on peut.Par contre l'année ne sera pas rensignée.De plus l'EAE ne sera pas "finalisé" et donc ne pourra etre controlé et donc on ne recuperera rien dans les avancements. --&gt; il faut prevoir de bloquer certaines actions dans SIRH je pense. De plus, les droits ne seront pas à mis à jour sur le fichier -6&gt; ni l'agent ni son chef ne verront l'EAE dans le kiosque.</t>
+  </si>
+  <si>
+    <t>Ce WS sera appelé par SIRH lors du contrôle d'un EAE (lors du dé-contrôle on enleverra ces droits)</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1174,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1247,6 +1268,7 @@
     <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1256,7 +1278,12 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1604,8 +1631,8 @@
   </sheetPr>
   <dimension ref="B3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,22 +1644,23 @@
     <col min="6" max="6" width="11.42578125" style="20"/>
     <col min="9" max="9" width="38" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="38"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
@@ -1683,7 +1711,7 @@
         <v>101</v>
       </c>
       <c r="J7" s="35"/>
-      <c r="K7" s="40"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="E8" s="21"/>
@@ -1789,7 +1817,7 @@
         <v>93</v>
       </c>
       <c r="J13" s="28"/>
-      <c r="K13" s="40"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
@@ -1894,7 +1922,7 @@
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
-      <c r="K18" s="40"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="2:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
@@ -1959,7 +1987,7 @@
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="40"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
@@ -2054,12 +2082,14 @@
       <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="39">
         <v>2</v>
       </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="J26" s="31" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="27" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
@@ -2071,10 +2101,12 @@
       <c r="D27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="J27" s="31" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="28" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
@@ -2094,6 +2126,7 @@
       <c r="J28" s="36" t="s">
         <v>102</v>
       </c>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
@@ -2118,7 +2151,12 @@
       <c r="I31" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="28"/>
+      <c r="J31" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="32" spans="2:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
@@ -2138,8 +2176,9 @@
         <v>97</v>
       </c>
       <c r="J32" s="28"/>
-    </row>
-    <row r="33" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K32" s="37"/>
+    </row>
+    <row r="33" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
@@ -2155,15 +2194,18 @@
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
     </row>
-    <row r="35" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
@@ -2173,7 +2215,7 @@
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>24</v>
       </c>
@@ -2189,8 +2231,11 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="7"/>
@@ -2198,7 +2243,7 @@
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
     </row>
-    <row r="38" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2214,8 +2259,11 @@
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
-    </row>
-    <row r="40" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K38" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
@@ -2230,17 +2278,19 @@
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
@@ -2261,7 +2311,7 @@
       </c>
       <c r="J43" s="28"/>
     </row>
-    <row r="44" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
@@ -2278,7 +2328,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
     </row>
-    <row r="45" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
@@ -2299,11 +2349,11 @@
       </c>
       <c r="J45" s="28"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="49" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>4</v>
       </c>
@@ -2321,8 +2371,11 @@
         <v>100</v>
       </c>
       <c r="J49" s="28"/>
-    </row>
-    <row r="50" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="K49" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
@@ -2339,7 +2392,7 @@
       <c r="I50" s="28"/>
       <c r="J50" s="28"/>
     </row>
-    <row r="51" spans="2:10" ht="35.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="35.25" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>40</v>
       </c>
@@ -2356,7 +2409,7 @@
       </c>
       <c r="J51" s="28"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G53" s="32">
         <f>SUM(G7:G51)</f>
         <v>45.5</v>

--- a/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
+++ b/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
@@ -565,10 +565,10 @@
     <t>En attente reponse Titine/Fred sur impact paye.</t>
   </si>
   <si>
-    <t>Actuellement on peut.Par contre l'année ne sera pas rensignée.De plus l'EAE ne sera pas "finalisé" et donc ne pourra etre controlé et donc on ne recuperera rien dans les avancements. --&gt; il faut prevoir de bloquer certaines actions dans SIRH je pense. De plus, les droits ne seront pas à mis à jour sur le fichier -6&gt; ni l'agent ni son chef ne verront l'EAE dans le kiosque.</t>
-  </si>
-  <si>
     <t>Ce WS sera appelé par SIRH lors du contrôle d'un EAE (lors du dé-contrôle on enleverra ces droits)</t>
+  </si>
+  <si>
+    <t>Actuellement on peut.Par contre la note de l'année ne sera pas rensignée.De plus l'EAE ne sera pas "finalisé" et donc ne pourra etre controlé et donc on ne recuperera rien dans les avancements. --&gt; il faut prevoir de bloquer certaines actions dans SIRH je pense. De plus, les droits ne seront pas à mis à jour sur le fichier -6&gt; ni l'agent ni son chef ne verront l'EAE dans le kiosque.</t>
   </si>
 </sst>
 </file>
@@ -1269,6 +1269,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1277,12 +1283,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1631,8 +1631,8 @@
   </sheetPr>
   <dimension ref="B3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,19 +1648,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
@@ -2082,7 +2082,7 @@
       <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="41">
         <v>2</v>
       </c>
       <c r="H26" s="28"/>
@@ -2101,7 +2101,7 @@
       <c r="D27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="40"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="31" t="s">
@@ -2154,7 +2154,7 @@
       <c r="J31" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K31" s="38" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       <c r="J32" s="28"/>
       <c r="K32" s="37"/>
     </row>
-    <row r="33" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
       <c r="J33" s="28"/>
-      <c r="K33" s="41" t="s">
+      <c r="K33" s="38" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>24</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
-      <c r="K36" s="42" t="s">
+      <c r="K36" s="39" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
     </row>
-    <row r="38" spans="2:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="399.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
       <c r="K38" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="45" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="J49" s="28"/>
       <c r="K49" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="105" x14ac:dyDescent="0.25">
@@ -2427,7 +2427,7 @@
     <mergeCell ref="G26:G27"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>

--- a/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
+++ b/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
   <si>
     <t>EAE - calcul de l'ancienneté dans le grade</t>
   </si>
@@ -292,9 +292,6 @@
     <t xml:space="preserve">Non vérifié : peut on scanner l'EAE de l'agent dans le dossier de l'agent alors que l'évaluateur n'a pas scanné le document de l'agent lors de la campagne ? </t>
   </si>
   <si>
-    <t>Liste des promouvables</t>
-  </si>
-  <si>
     <t>EAE - APPRECIATION</t>
   </si>
   <si>
@@ -411,8 +408,106 @@
 Les EAE affichables sont ceux des 3 dernières campagnes.  Pour l'instant on ne parle pas de reprise de données donc seule la campagne 2013 sera présente. </t>
   </si>
   <si>
+    <t>Edition de masse des EAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trier l'impression par Nom d'usage alphabétique. Plus facile à manipuler ensuite
+</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Critères de tri à revoir : priorisation par GRADE/ par DIRECTION . Il s'agit du tableau des promouvables pour les directions.
+      <t xml:space="preserve">Mise en forme nécessaire et à mettre dans les tableaux de bord des direction.
+TITRE/ date / Entête de colonne/ répétition de l'entête sur chaque page….
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C'est peut être un état BO ? </t>
+    </r>
+  </si>
+  <si>
+    <t>EAE- SIRH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A voir : Faut-il paramétrer une  notion dans agent hors VDN pour la gestion dans l'EAE. A priori la position administrative n'est pas suffisante pour selectionner les agents hors VDN dont nous avons la gestion dans les EAE. Les informations nécessaires pour ces agents sont à recenser et à positionner dans les autres administrations . A VERIFIER </t>
+  </si>
+  <si>
+    <t>Evaluations nbr jours</t>
+  </si>
+  <si>
+    <t>SIRH</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <t>En cours au SIE</t>
+  </si>
+  <si>
+    <t>le fonctionnement restera identique à ce qui est fait aujourd’hui, aux détails près :
+a. la note de l’année ne pourra pas être saisie au moment de l’évaluation 
+b. La note de l’année ne pourra donc pas être reportée sur le document final EAE (l’édition PDF) – les notes des années précédentes restent imprimables
+c. La note de l’année sera mise de manière manuscrite sur le document final EAE par le directeur 
+d. La saisie de la note de l’année devra être obligatoire au moment de la finalisation du document (scan) dans le kiosque. 
+e. En début de campagne une communication DRH aux évaluateurs sera faite pour expliquer ce système</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date de dernière embauche : non modifiable </t>
+  </si>
+  <si>
+    <t>date de début la + ancienne dans le service le + récent 
+modifiable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date d'entrée dans la fonction  </t>
+  </si>
+  <si>
+    <t>date de début la + ancienne sur la fiche de poste la + récent
+modifiable</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ETAT</t>
+  </si>
+  <si>
+    <t>contrôle + blocage au niveau du kiosque</t>
+  </si>
+  <si>
+    <t>prévoir 2 boutons d'impression qui s'appuient chacun sur un des 2 champs</t>
+  </si>
+  <si>
+    <t>Ce WS sera appelé par SIRH lors du contrôle d'un EAE (lors du dé-contrôle on enleverra ces droits)</t>
+  </si>
+  <si>
+    <t>En attente livraison</t>
+  </si>
+  <si>
+    <t>Modifiable et à récupérer de l’an dernier</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>reste le BIRT à revoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste des promouvables - 1 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
 Faire apparaitre l'avancement précédant (Mini/Moyen/Maxi). En effet un agent ne peut être à l'avancement MINI deux fois de suite. C'est donc un élément de contrôle. Nota : Il faudra attendre l'année prochaine pour voir les effets car un agent évolue normalement tous les 24 mois.
 </t>
     </r>
@@ -440,142 +535,65 @@
     </r>
   </si>
   <si>
-    <t>Edition de masse des EAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trier l'impression par Nom d'usage alphabétique. Plus facile à manipuler ensuite
+    <t>Critères de tri à revoir : priorisation par GRADE/ par DIRECTION . Il s'agit du tableau des promouvables pour les directions.</t>
+  </si>
+  <si>
+    <t>Liste des promouvables - 2</t>
+  </si>
+  <si>
+    <t>En attente d'explications DRH</t>
+  </si>
+  <si>
+    <t>Actuellement on peut.
+Par contre, aucun traitement n'est fait :
+- la note de l'année ne sera pas renseignée
+- l'EAE ne sera pas "finalisé" et ne pourra etre controlé et donc on ne recuperera rien dans les avancements
+- les droits ne seront pas à mis à jour sur le fichier : ni l'agent ni son chef ne verront l'EAE dans le kiosque.
+LE + PROPRE est de se mettre mettre délégataire et de le scanner dans le kiosque.</t>
+  </si>
+  <si>
+    <t>Ne sera pas traité cette année</t>
+  </si>
+  <si>
+    <t>* rajouter une coche dans Agent / autres administration : "gestion des EAE" = oui /non
+* ne prendre que les = oui, lors de la génération des EAE ( et des avancements ?)
+* Tableau des CAP : les détachés ne doivent pas sortir sur les doc CAP de la VDN mais à part (voir mail de ML du 26/08/13) : besoin de plus d'infos à ce sujet</t>
+  </si>
+  <si>
+    <t>En attente d'explications de la DRH</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Tri par CAP</t>
+  </si>
+  <si>
+    <t>SIRH - Edition des arrêtés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelle demande
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Mise en forme nécessaire et à mettre dans les tableaux de bord des direction.
-TITRE/ date / Entête de colonne/ répétition de l'entête sur chaque page….
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C'est peut être un état BO ? </t>
-    </r>
-  </si>
-  <si>
-    <t>EAE- SIRH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A voir : Faut-il paramétrer une  notion dans agent hors VDN pour la gestion dans l'EAE. A priori la position administrative n'est pas suffisante pour selectionner les agents hors VDN dont nous avons la gestion dans les EAE. Les informations nécessaires pour ces agents sont à recenser et à positionner dans les autres administrations . A VERIFIER </t>
-  </si>
-  <si>
-    <t>Evaluations nbr jours</t>
-  </si>
-  <si>
-    <t>SIRH</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Commentaires</t>
-  </si>
-  <si>
-    <t>En attente de la règle de calcul : donc à réévaluer en fonction</t>
-  </si>
-  <si>
-    <t>contrôles de format date à mettre partout</t>
-  </si>
-  <si>
-    <t>En cours au SIE</t>
-  </si>
-  <si>
-    <t>le fonctionnement restera identique à ce qui est fait aujourd’hui, aux détails près :
-a. la note de l’année ne pourra pas être saisie au moment de l’évaluation 
-b. La note de l’année ne pourra donc pas être reportée sur le document final EAE (l’édition PDF) – les notes des années précédentes restent imprimables
-c. La note de l’année sera mise de manière manuscrite sur le document final EAE par le directeur 
-d. La saisie de la note de l’année devra être obligatoire au moment de la finalisation du document (scan) dans le kiosque. 
-e. En début de campagne une communication DRH aux évaluateurs sera faite pour expliquer ce système</t>
-  </si>
-  <si>
-    <t>Modifiable et récupérer de l’an dernier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date de dernière embauche : non modifiable </t>
-  </si>
-  <si>
-    <t>date de début la + ancienne dans le service le + récent 
-modifiable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date d'entrée dans la fonction  </t>
-  </si>
-  <si>
-    <t>date de début la + ancienne sur la fiche de poste la + récent
-modifiable</t>
-  </si>
-  <si>
-    <t>A faire préciser par DRH</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>ETAT</t>
-  </si>
-  <si>
-    <t>contrôle + blocage au niveau du kiosque</t>
-  </si>
-  <si>
-    <t>prévoir 2 boutons d'impression qui s'appuient chacun sur un des 2 champs</t>
-  </si>
-  <si>
-    <t>A faire en 2014… voir + ….</t>
-  </si>
-  <si>
-    <t>A faire préciser</t>
-  </si>
-  <si>
-    <t>A faire sur fermeture de la campagne + reprendre l'existant</t>
-  </si>
-  <si>
-    <t>En attente DRH</t>
-  </si>
-  <si>
-    <t>ON FAIT QUOI PAR RAPPORT A CA ?</t>
-  </si>
-  <si>
-    <t>Vu avec Michel et la DRHFPNC, notre calcul est ok et ne doit pas tenir compte ni de l'ACC ni de la BM</t>
-  </si>
-  <si>
-    <t>A voir à l'utilisation pour nous donner plus de precisions</t>
-  </si>
-  <si>
-    <t>Envoyer message erreur à SP.</t>
-  </si>
-  <si>
-    <t>On fait quelque chose dans SIRH ou on laisse la possibilité de pouvoir le faire</t>
-  </si>
-  <si>
-    <t>Si on fait l'edition en masse.</t>
-  </si>
-  <si>
-    <t>En attente reponse Titine/Fred sur impact paye.</t>
-  </si>
-  <si>
-    <t>Ce WS sera appelé par SIRH lors du contrôle d'un EAE (lors du dé-contrôle on enleverra ces droits)</t>
-  </si>
-  <si>
-    <t>Actuellement on peut.Par contre la note de l'année ne sera pas rensignée.De plus l'EAE ne sera pas "finalisé" et donc ne pourra etre controlé et donc on ne recuperera rien dans les avancements. --&gt; il faut prevoir de bloquer certaines actions dans SIRH je pense. De plus, les droits ne seront pas à mis à jour sur le fichier -6&gt; ni l'agent ni son chef ne verront l'EAE dans le kiosque.</t>
+    <t>Rajout d'un filtre par CAP</t>
+  </si>
+  <si>
+    <t>Email de ML du 26/08/13 :
+Michèle retient ton idée et elle la revendique d’ailleurs. Le mieux serait de pouvoir découper l’ACC en trois parties plus une avec
+o ACC au titre du stage
+o ACC au titre du corps de provenance
+o ACC au titre de l’administration d’origine
+o BA (bonification d’ancienneté)
+Comme cela on couvre l’ensemble des cas et on peut les automatiser sur les arrêtés.
+ OK pour prise en compte mais il nous faut toutes les nouvelles règles de calcul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,8 +768,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,12 +957,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -957,7 +975,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,20 +1204,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1197,35 +1218,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1235,53 +1240,144 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1629,802 +1725,870 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:K53"/>
+  <dimension ref="A3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="83.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="20"/>
-    <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="102.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="11"/>
+    <col min="9" max="9" width="82.85546875" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="66"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="25">
+        <v>1</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="1:11" s="19" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G4" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="41"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="D15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25">
+        <v>1</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="33">
+        <v>2</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="25">
+        <v>1</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="30">
+        <v>4</v>
+      </c>
+      <c r="H20" s="30">
+        <v>2</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="25">
+        <v>1</v>
+      </c>
+      <c r="H21" s="25">
+        <v>1</v>
+      </c>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25">
+        <v>1</v>
+      </c>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="25">
+        <v>1</v>
+      </c>
+      <c r="H24" s="25">
+        <v>3</v>
+      </c>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="67">
+        <v>2</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="62"/>
+      <c r="B27" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="33">
+        <v>1</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="25">
+        <v>1</v>
+      </c>
+      <c r="H30" s="25">
+        <v>2</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="49"/>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="63"/>
+      <c r="B31" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" s="49"/>
+    </row>
+    <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="33">
+        <v>1</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+    </row>
+    <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="K33" s="49"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A36" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="23">
+        <v>1</v>
+      </c>
+      <c r="H36" s="23"/>
+      <c r="I36" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="55"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="4"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="25">
+        <v>1</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="36">
+        <v>15</v>
+      </c>
+      <c r="H43" s="36">
+        <v>10</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33">
+        <v>3</v>
+      </c>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="33">
+        <v>5</v>
+      </c>
+      <c r="H45" s="33">
+        <v>5</v>
+      </c>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33">
+        <v>3</v>
+      </c>
+      <c r="I49" s="45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="33">
+        <v>3</v>
+      </c>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+    </row>
+    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="28">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="37"/>
-    </row>
-    <row r="8" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="28">
-        <v>1</v>
-      </c>
-      <c r="H12" s="28">
-        <v>1</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="28">
-        <v>1</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="2:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="28">
-        <v>1</v>
-      </c>
-      <c r="H15" s="28">
-        <v>1</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="28">
-        <v>1</v>
-      </c>
-      <c r="H16" s="28">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="28">
-        <v>1</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="28">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="2:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="28">
-        <v>1</v>
-      </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="28">
-        <v>4</v>
-      </c>
-      <c r="H21" s="28">
-        <v>2</v>
-      </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="28">
-        <v>1</v>
-      </c>
-      <c r="H22" s="28">
-        <v>1</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28">
-        <v>1</v>
-      </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="28">
-        <v>1</v>
-      </c>
-      <c r="H25" s="28">
-        <v>3</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="41">
-        <v>2</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="K28" s="37"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="31" spans="2:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="28">
-        <v>1</v>
-      </c>
-      <c r="H31" s="28">
-        <v>2</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="J31" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="K31" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="28">
-        <v>1</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="37"/>
-    </row>
-    <row r="33" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-    </row>
-    <row r="35" spans="2:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-    </row>
-    <row r="36" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B36" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="28">
-        <v>1</v>
-      </c>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="7"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-    </row>
-    <row r="38" spans="2:11" ht="399.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="28">
-        <v>1</v>
-      </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="28">
-        <v>15</v>
-      </c>
-      <c r="H43" s="28">
-        <v>10</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="J43" s="28"/>
-    </row>
-    <row r="44" spans="2:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28">
-        <v>3</v>
-      </c>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-    </row>
-    <row r="45" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="28">
-        <v>5</v>
-      </c>
-      <c r="H45" s="28">
-        <v>5</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="J45" s="28"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="49" spans="2:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="13" t="s">
+      <c r="D51" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28">
-        <v>3</v>
-      </c>
-      <c r="I49" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="J49" s="28"/>
-      <c r="K49" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="28">
-        <v>3</v>
-      </c>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-    </row>
-    <row r="51" spans="2:11" ht="35.25" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="J51" s="28"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G53" s="32">
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="64"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G53" s="21">
         <f>SUM(G7:G51)</f>
         <v>45.5</v>
       </c>
-      <c r="H53" s="32">
+      <c r="H53" s="21">
         <f>SUM(H7:H51)</f>
         <v>34</v>
       </c>
-      <c r="I53" s="32"/>
+      <c r="I53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G25:G26"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
+++ b/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>EAE - calcul de l'ancienneté dans le grade</t>
   </si>
@@ -587,6 +587,9 @@
 o BA (bonification d’ancienneté)
 Comme cela on couvre l’ensemble des cas et on peut les automatiser sur les arrêtés.
  OK pour prise en compte mais il nous faut toutes les nouvelles règles de calcul</t>
+  </si>
+  <si>
+    <t>Trop compliqué.Le mieux que l'on puisse faire c'est trié par numero de matricule,</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -988,6 +991,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,7 +1213,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1380,6 +1389,7 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1727,8 +1737,8 @@
   </sheetPr>
   <dimension ref="A3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,7 +2240,9 @@
         <v>1</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="I27" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2324,23 +2336,25 @@
       <c r="K32" s="29"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="34" t="s">
+      <c r="A33" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="33">
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="25">
         <v>0.5</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
       <c r="K33" s="49"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">

--- a/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
+++ b/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
   <si>
     <t>EAE - calcul de l'ancienneté dans le grade</t>
   </si>
@@ -589,7 +589,7 @@
  OK pour prise en compte mais il nous faut toutes les nouvelles règles de calcul</t>
   </si>
   <si>
-    <t>Trop compliqué.Le mieux que l'on puisse faire c'est trié par numero de matricule,</t>
+    <t>Trop compliqué (car base de données oracle et AS400 --&gt; on ne peut pas faire cela en 1 requete et donc cela va alourdir le traitement).Le mieux que l'on puisse faire c'est trié par numero de matricule,</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1213,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1370,13 +1370,11 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1389,7 +1387,18 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1737,8 +1746,8 @@
   </sheetPr>
   <dimension ref="A3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,23 +2015,25 @@
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="33">
+      <c r="E17" s="42"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="25">
         <v>2</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
       <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
@@ -2223,24 +2234,24 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="69"/>
+      <c r="B27" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="33">
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="64">
         <v>1</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="69" t="s">
+      <c r="H27" s="64"/>
+      <c r="I27" s="72" t="s">
         <v>112</v>
       </c>
       <c r="K27" s="29"/>
@@ -2293,7 +2304,7 @@
       <c r="K30" s="49"/>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="34" t="s">
         <v>107</v>
       </c>
@@ -2585,7 +2596,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
-      <c r="I51" s="64"/>
+      <c r="I51" s="63"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G53" s="21">

--- a/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
+++ b/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
   <si>
     <t>EAE - calcul de l'ancienneté dans le grade</t>
   </si>
@@ -1375,6 +1375,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1386,18 +1398,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1746,8 +1746,8 @@
   </sheetPr>
   <dimension ref="A3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,19 +1763,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
-      <c r="G25" s="67">
+      <c r="G25" s="71">
         <v>2</v>
       </c>
       <c r="H25" s="40"/>
@@ -2230,28 +2230,28 @@
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
-      <c r="G26" s="68"/>
+      <c r="G26" s="72"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="64">
         <v>1</v>
       </c>
       <c r="H27" s="64"/>
-      <c r="I27" s="72" t="s">
+      <c r="I27" s="68" t="s">
         <v>112</v>
       </c>
       <c r="K27" s="29"/>
@@ -2324,23 +2324,25 @@
       <c r="K31" s="49"/>
     </row>
     <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="33">
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="25">
         <v>1</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="48" t="s">
+      <c r="H32" s="25"/>
+      <c r="I32" s="38" t="s">
         <v>91</v>
       </c>
       <c r="J32" s="29"/>

--- a/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
+++ b/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
   <si>
     <t>EAE - calcul de l'ancienneté dans le grade</t>
   </si>
@@ -1746,8 +1746,8 @@
   </sheetPr>
   <dimension ref="A3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,7 +2542,9 @@
       <c r="C46" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="41" t="s">
+        <v>95</v>
+      </c>
       <c r="B49" s="34" t="s">
         <v>4</v>
       </c>

--- a/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
+++ b/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
   <si>
     <t>EAE - calcul de l'ancienneté dans le grade</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>Trop compliqué (car base de données oracle et AS400 --&gt; on ne peut pas faire cela en 1 requete et donc cela va alourdir le traitement).Le mieux que l'on puisse faire c'est trié par numero de matricule,</t>
+  </si>
+  <si>
+    <t>ok en attente de validation Adrien et de compte AD pour sharepoint</t>
   </si>
 </sst>
 </file>
@@ -1746,8 +1749,8 @@
   </sheetPr>
   <dimension ref="A3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,25 +2499,25 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="34" t="s">
+      <c r="A44" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33">
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25">
         <v>3</v>
       </c>
-      <c r="I44" s="33"/>
+      <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
@@ -2541,7 +2544,7 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>95</v>
       </c>
@@ -2563,8 +2566,11 @@
       <c r="I49" s="45" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="34" t="s">
         <v>5</v>
@@ -2583,7 +2589,7 @@
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
     </row>
-    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>82</v>
       </c>
@@ -2602,7 +2608,7 @@
       <c r="H51" s="33"/>
       <c r="I51" s="63"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G53" s="21">
         <f>SUM(G7:G51)</f>
         <v>45.5</v>

--- a/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
+++ b/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
@@ -1216,7 +1216,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1323,9 +1323,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1749,8 +1746,8 @@
   </sheetPr>
   <dimension ref="A3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,22 +1763,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="70"/>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1810,7 +1807,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -1909,13 +1906,13 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="53" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -1927,13 +1924,13 @@
         <v>106</v>
       </c>
       <c r="H12" s="23"/>
-      <c r="I12" s="46" t="s">
+      <c r="I12" s="45" t="s">
         <v>104</v>
       </c>
       <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:11" s="19" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="31"/>
       <c r="C13" s="8"/>
       <c r="D13" s="3"/>
@@ -1995,7 +1992,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2086,7 +2083,7 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="59" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="44" t="s">
@@ -2198,7 +2195,7 @@
       <c r="I24" s="38"/>
     </row>
     <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="60" t="s">
         <v>88</v>
       </c>
       <c r="B25" s="39" t="s">
@@ -2212,14 +2209,14 @@
       </c>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
-      <c r="G25" s="71">
+      <c r="G25" s="70">
         <v>2</v>
       </c>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2233,28 +2230,28 @@
       </c>
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
-      <c r="G26" s="72"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="64">
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="63">
         <v>1</v>
       </c>
-      <c r="H27" s="64"/>
-      <c r="I27" s="68" t="s">
+      <c r="H27" s="63"/>
+      <c r="I27" s="67" t="s">
         <v>112</v>
       </c>
       <c r="K27" s="29"/>
@@ -2264,24 +2261,24 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="56" t="s">
         <v>101</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="45" t="s">
         <v>99</v>
       </c>
       <c r="D29" s="22"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="58" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -2304,10 +2301,10 @@
       <c r="I30" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="49"/>
+      <c r="K30" s="48"/>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="34" t="s">
         <v>107</v>
       </c>
@@ -2321,10 +2318,10 @@
       <c r="F31" s="41"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="48" t="s">
+      <c r="I31" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="49"/>
+      <c r="K31" s="48"/>
     </row>
     <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
@@ -2371,7 +2368,7 @@
       </c>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="K33" s="49"/>
+      <c r="K33" s="48"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -2392,7 +2389,7 @@
       <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="56" t="s">
         <v>105</v>
       </c>
       <c r="B36" s="22" t="s">
@@ -2404,16 +2401,16 @@
       <c r="D36" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="23">
         <v>1</v>
       </c>
       <c r="H36" s="23"/>
-      <c r="I36" s="46" t="s">
+      <c r="I36" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="K36" s="55"/>
+      <c r="K36" s="54"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
@@ -2476,7 +2473,7 @@
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="37" t="s">
         <v>56</v>
       </c>
@@ -2486,8 +2483,8 @@
       <c r="D43" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
       <c r="G43" s="36">
         <v>15</v>
       </c>
@@ -2545,25 +2542,25 @@
       <c r="C46" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="34" t="s">
+      <c r="A49" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33">
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25">
         <v>3</v>
       </c>
-      <c r="I49" s="45" t="s">
+      <c r="I49" s="38" t="s">
         <v>92</v>
       </c>
       <c r="J49" t="s">
@@ -2593,10 +2590,10 @@
       <c r="A51" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="51" t="s">
         <v>67</v>
       </c>
       <c r="D51" s="34" t="s">
@@ -2606,7 +2603,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
-      <c r="I51" s="63"/>
+      <c r="I51" s="62"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G53" s="21">

--- a/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
+++ b/src/site/resources/doc/specifications/EAE-evolutions 2013.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="113">
   <si>
     <t>EAE - calcul de l'ancienneté dans le grade</t>
   </si>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>En cours</t>
-  </si>
-  <si>
-    <t>reste le BIRT à revoir</t>
   </si>
   <si>
     <t xml:space="preserve">Liste des promouvables - 1 </t>
@@ -1216,7 +1213,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1287,7 +1284,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1298,9 +1294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1321,9 +1314,6 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1363,9 +1353,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1399,6 +1386,13 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1746,8 +1740,8 @@
   </sheetPr>
   <dimension ref="A3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,22 +1757,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="52" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1807,7 +1801,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="43" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -1833,7 +1827,7 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="26" t="s">
@@ -1858,7 +1852,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -1879,7 +1873,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -1906,13 +1900,13 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="50" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -1921,24 +1915,24 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="23"/>
-      <c r="I12" s="45" t="s">
-        <v>104</v>
+      <c r="I12" s="42" t="s">
+        <v>103</v>
       </c>
       <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:11" s="19" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="8"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -1960,12 +1954,12 @@
       <c r="H14" s="25">
         <v>1</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="36" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="26" t="s">
@@ -1987,12 +1981,12 @@
       <c r="H15" s="25">
         <v>1</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="36" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="55" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -2012,10 +2006,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="25"/>
-      <c r="I16" s="38"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -2027,7 +2021,7 @@
       <c r="D17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="28"/>
       <c r="G17" s="25">
         <v>2</v>
@@ -2037,7 +2031,7 @@
       <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -2049,7 +2043,7 @@
       <c r="D18" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="28"/>
       <c r="G18" s="25">
         <v>0.5</v>
@@ -2058,7 +2052,7 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -2068,7 +2062,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="27"/>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="40" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="28" t="s">
@@ -2083,33 +2077,31 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="30">
+      <c r="E20" s="40"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="70">
         <v>4</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="70">
         <v>2</v>
       </c>
-      <c r="I20" s="30" t="s">
-        <v>96</v>
-      </c>
+      <c r="I20" s="70"/>
       <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -2121,7 +2113,7 @@
       <c r="D21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="28"/>
       <c r="G21" s="25">
         <v>1</v>
@@ -2132,26 +2124,26 @@
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="41" t="s">
         <v>83</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="42"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="28"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="38"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -2163,7 +2155,7 @@
       <c r="D23" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="42"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="28"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25">
@@ -2172,7 +2164,7 @@
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -2184,39 +2176,39 @@
       <c r="D24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
       <c r="G24" s="25">
         <v>1</v>
       </c>
       <c r="H24" s="25">
         <v>3</v>
       </c>
-      <c r="I24" s="38"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="37" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="70">
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="66">
         <v>2</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="55" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -2228,31 +2220,31 @@
       <c r="D26" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="71"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="63">
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="59">
         <v>1</v>
       </c>
-      <c r="H27" s="63"/>
-      <c r="I27" s="67" t="s">
-        <v>112</v>
+      <c r="H27" s="59"/>
+      <c r="I27" s="63" t="s">
+        <v>111</v>
       </c>
       <c r="K27" s="29"/>
     </row>
@@ -2261,70 +2253,70 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="s">
-        <v>101</v>
+      <c r="A29" s="53" t="s">
+        <v>100</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="D29" s="22"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="55" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
       <c r="G30" s="25">
         <v>1</v>
       </c>
       <c r="H30" s="25">
         <v>2</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="K30" s="48"/>
+      <c r="K30" s="45"/>
     </row>
     <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="34" t="s">
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="K31" s="48"/>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -2336,20 +2328,20 @@
       <c r="D32" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
       <c r="G32" s="25">
         <v>1</v>
       </c>
       <c r="H32" s="25"/>
-      <c r="I32" s="38" t="s">
+      <c r="I32" s="36" t="s">
         <v>91</v>
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -2361,14 +2353,14 @@
       <c r="D33" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
       <c r="G33" s="25">
         <v>0.5</v>
       </c>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="K33" s="48"/>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -2389,8 +2381,8 @@
       <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
-        <v>105</v>
+      <c r="A36" s="53" t="s">
+        <v>104</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>24</v>
@@ -2401,16 +2393,16 @@
       <c r="D36" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
       <c r="G36" s="23">
         <v>1</v>
       </c>
       <c r="H36" s="23"/>
-      <c r="I36" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" s="54"/>
+      <c r="I36" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="51"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
@@ -2421,7 +2413,7 @@
       <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -2433,18 +2425,18 @@
       <c r="D38" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
       <c r="G38" s="25">
         <v>1</v>
       </c>
       <c r="H38" s="25"/>
-      <c r="I38" s="38" t="s">
-        <v>102</v>
+      <c r="I38" s="36" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -2456,8 +2448,8 @@
       <c r="D40" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
       <c r="G40" s="25">
         <v>0.5</v>
       </c>
@@ -2473,30 +2465,30 @@
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="37" t="s">
+      <c r="A43" s="46"/>
+      <c r="B43" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="36">
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="34">
         <v>15</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="34">
         <v>10</v>
       </c>
-      <c r="I43" s="36" t="s">
-        <v>103</v>
+      <c r="I43" s="34" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -2508,8 +2500,8 @@
       <c r="D44" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25">
         <v>3</v>
@@ -2517,32 +2509,34 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="34" t="s">
+      <c r="A45" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="33">
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="32">
         <v>5</v>
       </c>
-      <c r="H45" s="33">
+      <c r="H45" s="32">
         <v>5</v>
       </c>
-      <c r="I45" s="33"/>
+      <c r="I45" s="32"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B49" s="27" t="s">
@@ -2554,56 +2548,56 @@
       <c r="D49" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25">
         <v>3</v>
       </c>
-      <c r="I49" s="38" t="s">
+      <c r="I49" s="36" t="s">
         <v>92</v>
       </c>
       <c r="J49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="34" t="s">
+      <c r="A50" s="39"/>
+      <c r="B50" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="33">
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="32">
         <v>3</v>
       </c>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
     </row>
     <row r="51" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="62"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="58"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G53" s="21">
